--- a/data/clean/num_turists_by_motive.xlsx
+++ b/data/clean/num_turists_by_motive.xlsx
@@ -460,7 +460,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Total Nacional</t>
+          <t>Total Nacional</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -476,7 +476,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Total Nacional</t>
+          <t>Total Nacional</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -492,7 +492,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Total Nacional</t>
+          <t>Total Nacional</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -508,7 +508,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Total Nacional</t>
+          <t>Total Nacional</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -524,7 +524,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Total Nacional</t>
+          <t>Total Nacional</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -540,7 +540,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Total Nacional</t>
+          <t>Total Nacional</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -556,7 +556,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Total Nacional</t>
+          <t>Total Nacional</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -572,7 +572,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Total Nacional</t>
+          <t>Total Nacional</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -588,7 +588,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Total Nacional</t>
+          <t>Total Nacional</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -604,7 +604,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Total Nacional</t>
+          <t>Total Nacional</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -620,7 +620,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Total Nacional</t>
+          <t>Total Nacional</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -636,7 +636,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Total Nacional</t>
+          <t>Total Nacional</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -652,7 +652,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Total Nacional</t>
+          <t>Total Nacional</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -668,7 +668,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Total Nacional</t>
+          <t>Total Nacional</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -684,7 +684,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Total Nacional</t>
+          <t>Total Nacional</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -700,7 +700,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Total Nacional</t>
+          <t>Total Nacional</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -716,7 +716,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Total Nacional</t>
+          <t>Total Nacional</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -732,7 +732,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Total Nacional</t>
+          <t>Total Nacional</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -748,7 +748,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Total Nacional</t>
+          <t>Total Nacional</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -764,7 +764,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Total Nacional</t>
+          <t>Total Nacional</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -780,7 +780,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Total Nacional</t>
+          <t>Total Nacional</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -796,7 +796,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Total Nacional</t>
+          <t>Total Nacional</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -812,7 +812,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Total Nacional</t>
+          <t>Total Nacional</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -828,7 +828,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Total Nacional</t>
+          <t>Total Nacional</t>
         </is>
       </c>
       <c r="C25" t="n">

--- a/data/clean/num_turists_by_motive.xlsx
+++ b/data/clean/num_turists_by_motive.xlsx
@@ -460,7 +460,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Total Nacional</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -476,7 +476,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Total Nacional</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -492,7 +492,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Total Nacional</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -508,7 +508,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Total Nacional</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -524,7 +524,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Total Nacional</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -540,7 +540,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Total Nacional</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -556,7 +556,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Total Nacional</t>
+          <t>Ocio, recreo y vacaciones</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -572,7 +572,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Total Nacional</t>
+          <t>Ocio, recreo y vacaciones</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -588,7 +588,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Total Nacional</t>
+          <t>Ocio, recreo y vacaciones</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -604,7 +604,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Total Nacional</t>
+          <t>Ocio, recreo y vacaciones</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -620,7 +620,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Total Nacional</t>
+          <t>Ocio, recreo y vacaciones</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -636,7 +636,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Total Nacional</t>
+          <t>Ocio, recreo y vacaciones</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -652,7 +652,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Total Nacional</t>
+          <t>Motivo profesional</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -668,7 +668,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Total Nacional</t>
+          <t>Motivo profesional</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -684,7 +684,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Total Nacional</t>
+          <t>Motivo profesional</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -700,7 +700,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Total Nacional</t>
+          <t>Motivo profesional</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -716,7 +716,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Total Nacional</t>
+          <t>Motivo profesional</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -732,7 +732,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Total Nacional</t>
+          <t>Motivo profesional</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -748,7 +748,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Total Nacional</t>
+          <t>Otros</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -764,7 +764,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Total Nacional</t>
+          <t>Otros</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -780,7 +780,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Total Nacional</t>
+          <t>Otros</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -796,7 +796,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Total Nacional</t>
+          <t>Otros</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -812,7 +812,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Total Nacional</t>
+          <t>Otros</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -828,7 +828,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Total Nacional</t>
+          <t>Otros</t>
         </is>
       </c>
       <c r="C25" t="n">

--- a/data/clean/num_turists_by_motive.xlsx
+++ b/data/clean/num_turists_by_motive.xlsx
@@ -1,40 +1,69 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="7">
+  <si>
+    <t>motive</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Ocio, recreo y vacaciones</t>
+  </si>
+  <si>
+    <t>Motivo profesional</t>
+  </si>
+  <si>
+    <t>Otros</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD"/>
   </numFmts>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -49,94 +78,36 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -424,421 +395,361 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>motive</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>value</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>date</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
+    <row r="1" spans="1:4">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2">
         <v>31180802</v>
       </c>
-      <c r="D2" s="2" t="n">
+      <c r="D2" s="2">
         <v>44197</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3">
         <v>18933103</v>
       </c>
-      <c r="D3" s="2" t="n">
+      <c r="D3" s="2">
         <v>43831</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4">
         <v>83509153</v>
       </c>
-      <c r="D4" s="2" t="n">
+      <c r="D4" s="2">
         <v>43466</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
+    <row r="5" spans="1:4">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5">
         <v>82808413</v>
       </c>
-      <c r="D5" s="2" t="n">
+      <c r="D5" s="2">
         <v>43101</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
+    <row r="6" spans="1:4">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6">
         <v>81868522</v>
       </c>
-      <c r="D6" s="2" t="n">
+      <c r="D6" s="2">
         <v>42736</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
+    <row r="7" spans="1:4">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7">
         <v>75315008</v>
       </c>
-      <c r="D7" s="2" t="n">
+      <c r="D7" s="2">
         <v>42370</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
+    <row r="8" spans="1:4">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Ocio, recreo y vacaciones</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8">
         <v>26350140</v>
       </c>
-      <c r="D8" s="2" t="n">
+      <c r="D8" s="2">
         <v>44197</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
+    <row r="9" spans="1:4">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Ocio, recreo y vacaciones</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9">
         <v>15533526</v>
       </c>
-      <c r="D9" s="2" t="n">
+      <c r="D9" s="2">
         <v>43831</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
+    <row r="10" spans="1:4">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Ocio, recreo y vacaciones</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
+      <c r="B10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10">
         <v>72976423</v>
       </c>
-      <c r="D10" s="2" t="n">
+      <c r="D10" s="2">
         <v>43466</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
+    <row r="11" spans="1:4">
+      <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Ocio, recreo y vacaciones</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11">
         <v>72173054</v>
       </c>
-      <c r="D11" s="2" t="n">
+      <c r="D11" s="2">
         <v>43101</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
+    <row r="12" spans="1:4">
+      <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Ocio, recreo y vacaciones</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
+      <c r="B12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12">
         <v>71087103</v>
       </c>
-      <c r="D12" s="2" t="n">
+      <c r="D12" s="2">
         <v>42736</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
+    <row r="13" spans="1:4">
+      <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Ocio, recreo y vacaciones</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
+      <c r="B13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13">
         <v>64311744</v>
       </c>
-      <c r="D13" s="2" t="n">
+      <c r="D13" s="2">
         <v>42370</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
+    <row r="14" spans="1:4">
+      <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Motivo profesional</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
+      <c r="B14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14">
         <v>2076218</v>
       </c>
-      <c r="D14" s="2" t="n">
+      <c r="D14" s="2">
         <v>44197</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
+    <row r="15" spans="1:4">
+      <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Motivo profesional</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
+      <c r="B15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15">
         <v>1346060</v>
       </c>
-      <c r="D15" s="2" t="n">
+      <c r="D15" s="2">
         <v>43831</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
+    <row r="16" spans="1:4">
+      <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Motivo profesional</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
+      <c r="B16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16">
         <v>5409183</v>
       </c>
-      <c r="D16" s="2" t="n">
+      <c r="D16" s="2">
         <v>43466</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
+    <row r="17" spans="1:4">
+      <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Motivo profesional</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
+      <c r="B17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17">
         <v>5023355</v>
       </c>
-      <c r="D17" s="2" t="n">
+      <c r="D17" s="2">
         <v>43101</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
+    <row r="18" spans="1:4">
+      <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Motivo profesional</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
+      <c r="B18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18">
         <v>4720463</v>
       </c>
-      <c r="D18" s="2" t="n">
+      <c r="D18" s="2">
         <v>42736</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
+    <row r="19" spans="1:4">
+      <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Motivo profesional</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
+      <c r="B19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19">
         <v>4679698</v>
       </c>
-      <c r="D19" s="2" t="n">
+      <c r="D19" s="2">
         <v>42370</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
+    <row r="20" spans="1:4">
+      <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Otros</t>
-        </is>
-      </c>
-      <c r="C20" t="n">
+      <c r="B20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20">
         <v>2754444</v>
       </c>
-      <c r="D20" s="2" t="n">
+      <c r="D20" s="2">
         <v>44197</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
+    <row r="21" spans="1:4">
+      <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Otros</t>
-        </is>
-      </c>
-      <c r="C21" t="n">
+      <c r="B21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21">
         <v>2053516</v>
       </c>
-      <c r="D21" s="2" t="n">
+      <c r="D21" s="2">
         <v>43831</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
+    <row r="22" spans="1:4">
+      <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Otros</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
+      <c r="B22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22">
         <v>5123547</v>
       </c>
-      <c r="D22" s="2" t="n">
+      <c r="D22" s="2">
         <v>43466</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
+    <row r="23" spans="1:4">
+      <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Otros</t>
-        </is>
-      </c>
-      <c r="C23" t="n">
+      <c r="B23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23">
         <v>5612005</v>
       </c>
-      <c r="D23" s="2" t="n">
+      <c r="D23" s="2">
         <v>43101</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
+    <row r="24" spans="1:4">
+      <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Otros</t>
-        </is>
-      </c>
-      <c r="C24" t="n">
+      <c r="B24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24">
         <v>6060956</v>
       </c>
-      <c r="D24" s="2" t="n">
+      <c r="D24" s="2">
         <v>42736</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
+    <row r="25" spans="1:4">
+      <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>Otros</t>
-        </is>
-      </c>
-      <c r="C25" t="n">
+      <c r="B25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25">
         <v>6323567</v>
       </c>
-      <c r="D25" s="2" t="n">
+      <c r="D25" s="2">
         <v>42370</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/clean/num_turists_by_motive.xlsx
+++ b/data/clean/num_turists_by_motive.xlsx
@@ -1,69 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="7">
-  <si>
-    <t>motive</t>
-  </si>
-  <si>
-    <t>value</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>Ocio, recreo y vacaciones</t>
-  </si>
-  <si>
-    <t>Motivo profesional</t>
-  </si>
-  <si>
-    <t>Otros</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD"/>
   </numFmts>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -78,36 +49,94 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -395,361 +424,421 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>motive</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>value</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>31180802</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>44197</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>18933103</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>43831</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>83509153</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>43466</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="C2">
-        <v>31180802</v>
-      </c>
-      <c r="D2" s="2">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>82808413</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>43101</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>81868522</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>42736</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>75315008</v>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>42370</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Ocio, recreo y vacaciones</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>26350140</v>
+      </c>
+      <c r="D8" s="2" t="n">
         <v>44197</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3">
-        <v>18933103</v>
-      </c>
-      <c r="D3" s="2">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Ocio, recreo y vacaciones</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>15533526</v>
+      </c>
+      <c r="D9" s="2" t="n">
         <v>43831</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4">
-        <v>83509153</v>
-      </c>
-      <c r="D4" s="2">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Ocio, recreo y vacaciones</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>72976423</v>
+      </c>
+      <c r="D10" s="2" t="n">
         <v>43466</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5">
-        <v>82808413</v>
-      </c>
-      <c r="D5" s="2">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Ocio, recreo y vacaciones</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>72173054</v>
+      </c>
+      <c r="D11" s="2" t="n">
         <v>43101</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6">
-        <v>81868522</v>
-      </c>
-      <c r="D6" s="2">
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Ocio, recreo y vacaciones</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>71087103</v>
+      </c>
+      <c r="D12" s="2" t="n">
         <v>42736</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7">
-        <v>75315008</v>
-      </c>
-      <c r="D7" s="2">
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Ocio, recreo y vacaciones</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>64311744</v>
+      </c>
+      <c r="D13" s="2" t="n">
         <v>42370</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8">
-        <v>26350140</v>
-      </c>
-      <c r="D8" s="2">
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Motivo profesional</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>2076218</v>
+      </c>
+      <c r="D14" s="2" t="n">
         <v>44197</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9">
-        <v>15533526</v>
-      </c>
-      <c r="D9" s="2">
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Motivo profesional</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>1346060</v>
+      </c>
+      <c r="D15" s="2" t="n">
         <v>43831</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10">
-        <v>72976423</v>
-      </c>
-      <c r="D10" s="2">
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Motivo profesional</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>5409183</v>
+      </c>
+      <c r="D16" s="2" t="n">
         <v>43466</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11">
-        <v>72173054</v>
-      </c>
-      <c r="D11" s="2">
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Motivo profesional</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>5023355</v>
+      </c>
+      <c r="D17" s="2" t="n">
         <v>43101</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12">
-        <v>71087103</v>
-      </c>
-      <c r="D12" s="2">
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Motivo profesional</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>4720463</v>
+      </c>
+      <c r="D18" s="2" t="n">
         <v>42736</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13">
-        <v>64311744</v>
-      </c>
-      <c r="D13" s="2">
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Motivo profesional</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>4679698</v>
+      </c>
+      <c r="D19" s="2" t="n">
         <v>42370</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14">
-        <v>2076218</v>
-      </c>
-      <c r="D14" s="2">
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Otros</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>2754444</v>
+      </c>
+      <c r="D20" s="2" t="n">
         <v>44197</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15">
-        <v>1346060</v>
-      </c>
-      <c r="D15" s="2">
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Otros</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>2053516</v>
+      </c>
+      <c r="D21" s="2" t="n">
         <v>43831</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16">
-        <v>5409183</v>
-      </c>
-      <c r="D16" s="2">
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Otros</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>5123547</v>
+      </c>
+      <c r="D22" s="2" t="n">
         <v>43466</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17">
-        <v>5023355</v>
-      </c>
-      <c r="D17" s="2">
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Otros</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>5612005</v>
+      </c>
+      <c r="D23" s="2" t="n">
         <v>43101</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18">
-        <v>4720463</v>
-      </c>
-      <c r="D18" s="2">
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Otros</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>6060956</v>
+      </c>
+      <c r="D24" s="2" t="n">
         <v>42736</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="1">
-        <v>17</v>
-      </c>
-      <c r="B19" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19">
-        <v>4679698</v>
-      </c>
-      <c r="D19" s="2">
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Otros</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>6323567</v>
+      </c>
+      <c r="D25" s="2" t="n">
         <v>42370</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="1">
-        <v>18</v>
-      </c>
-      <c r="B20" t="s">
-        <v>6</v>
-      </c>
-      <c r="C20">
-        <v>2754444</v>
-      </c>
-      <c r="D20" s="2">
-        <v>44197</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="1">
-        <v>19</v>
-      </c>
-      <c r="B21" t="s">
-        <v>6</v>
-      </c>
-      <c r="C21">
-        <v>2053516</v>
-      </c>
-      <c r="D21" s="2">
-        <v>43831</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="1">
-        <v>20</v>
-      </c>
-      <c r="B22" t="s">
-        <v>6</v>
-      </c>
-      <c r="C22">
-        <v>5123547</v>
-      </c>
-      <c r="D22" s="2">
-        <v>43466</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="1">
-        <v>21</v>
-      </c>
-      <c r="B23" t="s">
-        <v>6</v>
-      </c>
-      <c r="C23">
-        <v>5612005</v>
-      </c>
-      <c r="D23" s="2">
-        <v>43101</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="1">
-        <v>22</v>
-      </c>
-      <c r="B24" t="s">
-        <v>6</v>
-      </c>
-      <c r="C24">
-        <v>6060956</v>
-      </c>
-      <c r="D24" s="2">
-        <v>42736</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="1">
-        <v>23</v>
-      </c>
-      <c r="B25" t="s">
-        <v>6</v>
-      </c>
-      <c r="C25">
-        <v>6323567</v>
-      </c>
-      <c r="D25" s="2">
-        <v>42370</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>